--- a/WFP.ICT.Web/Templates/Tracking.xlsx
+++ b/WFP.ICT.Web/Templates/Tracking.xlsx
@@ -902,6 +902,57 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -916,57 +967,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1034,7 +1034,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DEF1A45-3E5D-462A-91AF-E22A9FC6595F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DEF1A45-3E5D-462A-91AF-E22A9FC6595F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1084,7 +1084,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5E130FC-7FBD-4FEF-956C-6BF505EDB0A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E130FC-7FBD-4FEF-956C-6BF505EDB0A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1134,7 +1134,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,8 +1471,8 @@
   </sheetPr>
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:E88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,24 +1563,24 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="20" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="97" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="52"/>
@@ -1597,8 +1597,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
-      <c r="B9" s="94"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
@@ -1613,8 +1613,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
@@ -1629,18 +1629,18 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1727,8 +1727,8 @@
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="84"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="7"/>
@@ -1739,8 +1739,8 @@
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="84"/>
-      <c r="B18" s="84"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="7"/>
@@ -1961,7 +1961,7 @@
       <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="100" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="30"/>
@@ -1975,7 +1975,7 @@
       <c r="J34" s="23"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -2539,13 +2539,13 @@
       <c r="J79" s="12"/>
     </row>
     <row r="80" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="97" t="s">
+      <c r="A80" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="97"/>
-      <c r="C80" s="97"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="98"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="93"/>
+      <c r="D80" s="93"/>
+      <c r="E80" s="94"/>
       <c r="F80" s="71" t="s">
         <v>21</v>
       </c>
@@ -2573,11 +2573,11 @@
       <c r="J81" s="68"/>
     </row>
     <row r="82" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="99"/>
-      <c r="B82" s="100"/>
-      <c r="C82" s="100"/>
-      <c r="D82" s="100"/>
-      <c r="E82" s="100"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="92"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="92"/>
       <c r="F82" s="73"/>
       <c r="G82" s="73"/>
       <c r="H82" s="73"/>
@@ -2587,11 +2587,11 @@
       <c r="J82" s="7"/>
     </row>
     <row r="83" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="89"/>
-      <c r="B83" s="90"/>
-      <c r="C83" s="90"/>
-      <c r="D83" s="90"/>
-      <c r="E83" s="90"/>
+      <c r="A83" s="82"/>
+      <c r="B83" s="83"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="83"/>
       <c r="F83" s="66"/>
       <c r="G83" s="66"/>
       <c r="H83" s="66"/>
@@ -2601,11 +2601,11 @@
       <c r="J83" s="7"/>
     </row>
     <row r="84" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="87"/>
-      <c r="B84" s="88"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
+      <c r="A84" s="84"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="85"/>
       <c r="F84" s="65"/>
       <c r="G84" s="65"/>
       <c r="H84" s="65"/>
@@ -2615,11 +2615,11 @@
       <c r="J84" s="7"/>
     </row>
     <row r="85" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="89"/>
-      <c r="B85" s="90"/>
-      <c r="C85" s="90"/>
-      <c r="D85" s="90"/>
-      <c r="E85" s="90"/>
+      <c r="A85" s="82"/>
+      <c r="B85" s="83"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="83"/>
+      <c r="E85" s="83"/>
       <c r="F85" s="66"/>
       <c r="G85" s="66"/>
       <c r="H85" s="66"/>
@@ -2629,11 +2629,11 @@
       <c r="J85" s="7"/>
     </row>
     <row r="86" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="87"/>
-      <c r="B86" s="88"/>
-      <c r="C86" s="88"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="88"/>
+      <c r="A86" s="84"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
       <c r="F86" s="65"/>
       <c r="G86" s="65"/>
       <c r="H86" s="65"/>
@@ -2643,11 +2643,11 @@
       <c r="J86" s="7"/>
     </row>
     <row r="87" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="89"/>
-      <c r="B87" s="90"/>
-      <c r="C87" s="90"/>
-      <c r="D87" s="90"/>
-      <c r="E87" s="90"/>
+      <c r="A87" s="82"/>
+      <c r="B87" s="83"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="83"/>
+      <c r="E87" s="83"/>
       <c r="F87" s="66"/>
       <c r="G87" s="66"/>
       <c r="H87" s="66"/>
@@ -2657,11 +2657,11 @@
       <c r="J87" s="7"/>
     </row>
     <row r="88" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="87"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="88"/>
-      <c r="E88" s="88"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
       <c r="F88" s="65"/>
       <c r="G88" s="65"/>
       <c r="H88" s="65"/>
@@ -2671,11 +2671,11 @@
       <c r="J88" s="7"/>
     </row>
     <row r="89" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="89"/>
-      <c r="B89" s="90"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="90"/>
+      <c r="A89" s="82"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="83"/>
       <c r="F89" s="66"/>
       <c r="G89" s="66"/>
       <c r="H89" s="66"/>
@@ -2685,11 +2685,11 @@
       <c r="J89" s="7"/>
     </row>
     <row r="90" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="87"/>
-      <c r="B90" s="88"/>
-      <c r="C90" s="88"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="88"/>
+      <c r="A90" s="84"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
       <c r="F90" s="65"/>
       <c r="G90" s="65"/>
       <c r="H90" s="65"/>
@@ -2699,11 +2699,11 @@
       <c r="J90" s="7"/>
     </row>
     <row r="91" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="89"/>
-      <c r="B91" s="90"/>
-      <c r="C91" s="90"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="90"/>
+      <c r="A91" s="82"/>
+      <c r="B91" s="83"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="83"/>
+      <c r="E91" s="83"/>
       <c r="F91" s="66"/>
       <c r="G91" s="66"/>
       <c r="H91" s="66"/>
@@ -2713,11 +2713,11 @@
       <c r="J91" s="7"/>
     </row>
     <row r="92" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="87"/>
-      <c r="B92" s="88"/>
-      <c r="C92" s="88"/>
-      <c r="D92" s="88"/>
-      <c r="E92" s="88"/>
+      <c r="A92" s="84"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
       <c r="F92" s="65"/>
       <c r="G92" s="65"/>
       <c r="H92" s="65"/>
@@ -2727,11 +2727,11 @@
       <c r="J92" s="7"/>
     </row>
     <row r="93" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="89"/>
-      <c r="B93" s="90"/>
-      <c r="C93" s="90"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="90"/>
+      <c r="A93" s="82"/>
+      <c r="B93" s="83"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
       <c r="F93" s="66"/>
       <c r="G93" s="66"/>
       <c r="H93" s="66"/>
@@ -2741,11 +2741,11 @@
       <c r="J93" s="7"/>
     </row>
     <row r="94" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="87"/>
-      <c r="B94" s="88"/>
-      <c r="C94" s="88"/>
-      <c r="D94" s="88"/>
-      <c r="E94" s="88"/>
+      <c r="A94" s="84"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
       <c r="F94" s="65"/>
       <c r="G94" s="65"/>
       <c r="H94" s="65"/>
@@ -2755,11 +2755,11 @@
       <c r="J94" s="7"/>
     </row>
     <row r="95" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="101"/>
-      <c r="B95" s="102"/>
-      <c r="C95" s="102"/>
-      <c r="D95" s="102"/>
-      <c r="E95" s="103"/>
+      <c r="A95" s="88"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="89"/>
+      <c r="E95" s="90"/>
       <c r="F95" s="66"/>
       <c r="G95" s="66"/>
       <c r="H95" s="66"/>
@@ -2769,11 +2769,11 @@
       <c r="J95" s="7"/>
     </row>
     <row r="96" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="87"/>
-      <c r="B96" s="88"/>
-      <c r="C96" s="88"/>
-      <c r="D96" s="88"/>
-      <c r="E96" s="88"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="85"/>
       <c r="F96" s="65"/>
       <c r="G96" s="65"/>
       <c r="H96" s="65"/>
@@ -2783,11 +2783,11 @@
       <c r="J96" s="7"/>
     </row>
     <row r="97" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="89"/>
-      <c r="B97" s="90"/>
-      <c r="C97" s="90"/>
-      <c r="D97" s="90"/>
-      <c r="E97" s="90"/>
+      <c r="A97" s="82"/>
+      <c r="B97" s="83"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="83"/>
       <c r="F97" s="66"/>
       <c r="G97" s="66"/>
       <c r="H97" s="66"/>
@@ -2797,11 +2797,11 @@
       <c r="J97" s="7"/>
     </row>
     <row r="98" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="87"/>
-      <c r="B98" s="88"/>
-      <c r="C98" s="88"/>
-      <c r="D98" s="88"/>
-      <c r="E98" s="88"/>
+      <c r="A98" s="84"/>
+      <c r="B98" s="85"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="85"/>
+      <c r="E98" s="85"/>
       <c r="F98" s="65"/>
       <c r="G98" s="65"/>
       <c r="H98" s="65"/>
@@ -2811,11 +2811,11 @@
       <c r="J98" s="7"/>
     </row>
     <row r="99" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="95"/>
-      <c r="B99" s="96"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="96"/>
-      <c r="E99" s="96"/>
+      <c r="A99" s="86"/>
+      <c r="B99" s="87"/>
+      <c r="C99" s="87"/>
+      <c r="D99" s="87"/>
+      <c r="E99" s="87"/>
       <c r="F99" s="79"/>
       <c r="G99" s="79"/>
       <c r="H99" s="79"/>
@@ -2825,11 +2825,11 @@
       <c r="J99" s="7"/>
     </row>
     <row r="100" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="99"/>
-      <c r="B100" s="100"/>
-      <c r="C100" s="100"/>
-      <c r="D100" s="100"/>
-      <c r="E100" s="100"/>
+      <c r="A100" s="91"/>
+      <c r="B100" s="92"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="92"/>
       <c r="F100" s="73"/>
       <c r="G100" s="73"/>
       <c r="H100" s="73"/>
@@ -2839,11 +2839,11 @@
       <c r="J100" s="7"/>
     </row>
     <row r="101" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="89"/>
-      <c r="B101" s="90"/>
-      <c r="C101" s="90"/>
-      <c r="D101" s="90"/>
-      <c r="E101" s="90"/>
+      <c r="A101" s="82"/>
+      <c r="B101" s="83"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="83"/>
+      <c r="E101" s="83"/>
       <c r="F101" s="66"/>
       <c r="G101" s="66"/>
       <c r="H101" s="66"/>
@@ -2853,11 +2853,11 @@
       <c r="J101" s="7"/>
     </row>
     <row r="102" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="87"/>
-      <c r="B102" s="88"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="88"/>
-      <c r="E102" s="88"/>
+      <c r="A102" s="84"/>
+      <c r="B102" s="85"/>
+      <c r="C102" s="85"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="85"/>
       <c r="F102" s="65"/>
       <c r="G102" s="65"/>
       <c r="H102" s="65"/>
@@ -2867,11 +2867,11 @@
       <c r="J102" s="7"/>
     </row>
     <row r="103" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="89"/>
-      <c r="B103" s="90"/>
-      <c r="C103" s="90"/>
-      <c r="D103" s="90"/>
-      <c r="E103" s="90"/>
+      <c r="A103" s="82"/>
+      <c r="B103" s="83"/>
+      <c r="C103" s="83"/>
+      <c r="D103" s="83"/>
+      <c r="E103" s="83"/>
       <c r="F103" s="66"/>
       <c r="G103" s="66"/>
       <c r="H103" s="66"/>
@@ -2881,11 +2881,11 @@
       <c r="J103" s="7"/>
     </row>
     <row r="104" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="87"/>
-      <c r="B104" s="88"/>
-      <c r="C104" s="88"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
+      <c r="A104" s="84"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
       <c r="F104" s="65"/>
       <c r="G104" s="65"/>
       <c r="H104" s="65"/>
@@ -2895,11 +2895,11 @@
       <c r="J104" s="7"/>
     </row>
     <row r="105" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="89"/>
-      <c r="B105" s="90"/>
-      <c r="C105" s="90"/>
-      <c r="D105" s="90"/>
-      <c r="E105" s="90"/>
+      <c r="A105" s="82"/>
+      <c r="B105" s="83"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="83"/>
+      <c r="E105" s="83"/>
       <c r="F105" s="66"/>
       <c r="G105" s="66"/>
       <c r="H105" s="66"/>
@@ -2909,11 +2909,11 @@
       <c r="J105" s="7"/>
     </row>
     <row r="106" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="87"/>
-      <c r="B106" s="88"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88"/>
+      <c r="A106" s="84"/>
+      <c r="B106" s="85"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="85"/>
+      <c r="E106" s="85"/>
       <c r="F106" s="65"/>
       <c r="G106" s="65"/>
       <c r="H106" s="65"/>
@@ -2923,11 +2923,11 @@
       <c r="J106" s="7"/>
     </row>
     <row r="107" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="89"/>
-      <c r="B107" s="90"/>
-      <c r="C107" s="90"/>
-      <c r="D107" s="90"/>
-      <c r="E107" s="90"/>
+      <c r="A107" s="82"/>
+      <c r="B107" s="83"/>
+      <c r="C107" s="83"/>
+      <c r="D107" s="83"/>
+      <c r="E107" s="83"/>
       <c r="F107" s="66"/>
       <c r="G107" s="66"/>
       <c r="H107" s="66"/>
@@ -2937,11 +2937,11 @@
       <c r="J107" s="7"/>
     </row>
     <row r="108" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="87"/>
-      <c r="B108" s="88"/>
-      <c r="C108" s="88"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="88"/>
+      <c r="A108" s="84"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
       <c r="F108" s="65"/>
       <c r="G108" s="65"/>
       <c r="H108" s="65"/>
@@ -2951,11 +2951,11 @@
       <c r="J108" s="7"/>
     </row>
     <row r="109" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="89"/>
-      <c r="B109" s="90"/>
-      <c r="C109" s="90"/>
-      <c r="D109" s="90"/>
-      <c r="E109" s="90"/>
+      <c r="A109" s="82"/>
+      <c r="B109" s="83"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="83"/>
+      <c r="E109" s="83"/>
       <c r="F109" s="66"/>
       <c r="G109" s="66"/>
       <c r="H109" s="66"/>
@@ -2965,11 +2965,11 @@
       <c r="J109" s="7"/>
     </row>
     <row r="110" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="87"/>
-      <c r="B110" s="88"/>
-      <c r="C110" s="88"/>
-      <c r="D110" s="88"/>
-      <c r="E110" s="88"/>
+      <c r="A110" s="84"/>
+      <c r="B110" s="85"/>
+      <c r="C110" s="85"/>
+      <c r="D110" s="85"/>
+      <c r="E110" s="85"/>
       <c r="F110" s="65"/>
       <c r="G110" s="65"/>
       <c r="H110" s="65"/>
@@ -2979,11 +2979,11 @@
       <c r="J110" s="7"/>
     </row>
     <row r="111" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="89"/>
-      <c r="B111" s="90"/>
-      <c r="C111" s="90"/>
-      <c r="D111" s="90"/>
-      <c r="E111" s="90"/>
+      <c r="A111" s="82"/>
+      <c r="B111" s="83"/>
+      <c r="C111" s="83"/>
+      <c r="D111" s="83"/>
+      <c r="E111" s="83"/>
       <c r="F111" s="66"/>
       <c r="G111" s="66"/>
       <c r="H111" s="66"/>
@@ -2993,11 +2993,11 @@
       <c r="J111" s="7"/>
     </row>
     <row r="112" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="87"/>
-      <c r="B112" s="88"/>
-      <c r="C112" s="88"/>
-      <c r="D112" s="88"/>
-      <c r="E112" s="88"/>
+      <c r="A112" s="84"/>
+      <c r="B112" s="85"/>
+      <c r="C112" s="85"/>
+      <c r="D112" s="85"/>
+      <c r="E112" s="85"/>
       <c r="F112" s="65"/>
       <c r="G112" s="65"/>
       <c r="H112" s="65"/>
@@ -3007,11 +3007,11 @@
       <c r="J112" s="7"/>
     </row>
     <row r="113" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="101"/>
-      <c r="B113" s="102"/>
-      <c r="C113" s="102"/>
-      <c r="D113" s="102"/>
-      <c r="E113" s="103"/>
+      <c r="A113" s="88"/>
+      <c r="B113" s="89"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="89"/>
+      <c r="E113" s="90"/>
       <c r="F113" s="66"/>
       <c r="G113" s="66"/>
       <c r="H113" s="66"/>
@@ -3021,11 +3021,11 @@
       <c r="J113" s="7"/>
     </row>
     <row r="114" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="87"/>
-      <c r="B114" s="88"/>
-      <c r="C114" s="88"/>
-      <c r="D114" s="88"/>
-      <c r="E114" s="88"/>
+      <c r="A114" s="84"/>
+      <c r="B114" s="85"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="85"/>
+      <c r="E114" s="85"/>
       <c r="F114" s="65"/>
       <c r="G114" s="65"/>
       <c r="H114" s="65"/>
@@ -3035,11 +3035,11 @@
       <c r="J114" s="7"/>
     </row>
     <row r="115" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="89"/>
-      <c r="B115" s="90"/>
-      <c r="C115" s="90"/>
-      <c r="D115" s="90"/>
-      <c r="E115" s="90"/>
+      <c r="A115" s="82"/>
+      <c r="B115" s="83"/>
+      <c r="C115" s="83"/>
+      <c r="D115" s="83"/>
+      <c r="E115" s="83"/>
       <c r="F115" s="66"/>
       <c r="G115" s="66"/>
       <c r="H115" s="66"/>
@@ -3049,11 +3049,11 @@
       <c r="J115" s="7"/>
     </row>
     <row r="116" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="87"/>
-      <c r="B116" s="88"/>
-      <c r="C116" s="88"/>
-      <c r="D116" s="88"/>
-      <c r="E116" s="88"/>
+      <c r="A116" s="84"/>
+      <c r="B116" s="85"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
       <c r="F116" s="65"/>
       <c r="G116" s="65"/>
       <c r="H116" s="65"/>
@@ -3063,11 +3063,11 @@
       <c r="J116" s="7"/>
     </row>
     <row r="117" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="95"/>
-      <c r="B117" s="96"/>
-      <c r="C117" s="96"/>
-      <c r="D117" s="96"/>
-      <c r="E117" s="96"/>
+      <c r="A117" s="86"/>
+      <c r="B117" s="87"/>
+      <c r="C117" s="87"/>
+      <c r="D117" s="87"/>
+      <c r="E117" s="87"/>
       <c r="F117" s="79"/>
       <c r="G117" s="79"/>
       <c r="H117" s="79"/>
@@ -3078,24 +3078,16 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="A98:E98"/>
     <mergeCell ref="A99:E99"/>
@@ -3112,16 +3104,24 @@
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A91:E91"/>
     <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
